--- a/WinPerUpdateAdmin/Fuentes/PlanillaModulos.xlsx
+++ b/WinPerUpdateAdmin/Fuentes/PlanillaModulos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sistema Principal</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Descripción</t>
+  </si>
+  <si>
+    <t>Suite</t>
   </si>
 </sst>
 </file>
@@ -388,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.5703125" style="1"/>
+    <col min="1" max="5" width="20.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -412,6 +415,9 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WinPerUpdateAdmin/Fuentes/PlanillaModulos.xlsx
+++ b/WinPerUpdateAdmin/Fuentes/PlanillaModulos.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Modulos" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="Sistema">Datos!$A$1:$A$2</definedName>
+    <definedName name="Suite">Datos!$B$1:$B$4</definedName>
+    <definedName name="SUITES">Datos!$B$1:$B$6</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sistema Principal</t>
   </si>
@@ -29,13 +35,19 @@
   </si>
   <si>
     <t>Suite</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,8 +62,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,8 +91,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,15 +121,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -217,7 +276,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Mirador">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -226,55 +285,71 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="35000"/>
+                <a:satMod val="260000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="30000">
+              <a:schemeClr val="phClr">
+                <a:tint val="38000"/>
+                <a:satMod val="260000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:schemeClr val="phClr">
+                <a:tint val="55000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="70000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:path path="circle">
+            <a:fillToRect l="5000" t="100000" r="120000" b="10000"/>
+          </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="165000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="30000">
+              <a:schemeClr val="phClr">
+                <a:shade val="58000"/>
+                <a:satMod val="165000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="175000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="15000"/>
+                <a:satMod val="175000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="5000" t="100000" r="120000" b="10000"/>
+          </a:path>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:shade val="70000"/>
+              <a:satMod val="150000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -285,7 +360,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -295,27 +370,27 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="25000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="40000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="42000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="42000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -323,12 +398,15 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig rig="balanced" dir="t">
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT w="47625" h="69850"/>
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -391,32 +469,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="23" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="20.5703125" style="4"/>
+    <col min="6" max="6" width="15.140625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="20.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="F2" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations xWindow="590" yWindow="221" count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="TRUE: Sí pertenece al sistema principal de WinPer.&#10;FALSE: No pertenece al sistema principal de WinPer." sqref="C1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1895">
+      <formula1>Sistema</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Especificar el directorio donde se encuentran los componentes del módulo. *Debe respetar la escritura del directorio." sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="1 = PERSONAL&#10;2 = REMUNERACIONES&#10;3 = RR.HH &#10;4 = GESTIÓN DE PERSONAL &#10;5 = PERSONAL&#10;6 = EMPRESAS" sqref="E1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1534:E2327">
+      <formula1>Suite</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1533">
+      <formula1>SUITES</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="20.5703125" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
